--- a/wikipedia_validation_sheets/Streptococcal pharyngitis DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Streptococcal pharyngitis DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{14FFE726-6854-C44B-ADF6-7B83ACDE5E67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6152B-C806-884D-81B6-59F2F3057007}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="125">
   <si>
     <t>Streptococcal pharyngitis</t>
   </si>
@@ -374,6 +382,30 @@
   </si>
   <si>
     <t>rapid antigen detection testing or RADT</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>crowding</t>
+  </si>
+  <si>
+    <t>Crowding of teeth</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>Absence (morphologic abnormality)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +684,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,13 +1055,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F5DF7B-56F7-A54C-B265-19C054980EEB}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" bestFit="1" customWidth="1"/>
@@ -1039,58 +1074,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1098,28 +1133,28 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="b">
+      <c r="E4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="F4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1127,28 +1162,28 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="b">
+      <c r="E5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="F5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1156,28 +1191,28 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="b">
+      <c r="E6" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="F6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1185,28 +1220,28 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="b">
+      <c r="E7" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="F7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1214,28 +1249,28 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="b">
+      <c r="E8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="F8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1243,28 +1278,28 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="b">
+      <c r="E9" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="F9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1272,28 +1307,28 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="b">
+      <c r="E10" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="F10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1301,28 +1336,28 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="10" t="b">
+      <c r="E11" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="F11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1330,28 +1365,28 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10" t="b">
+      <c r="E12" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="F12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1359,28 +1394,28 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10" t="b">
+      <c r="E13" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="F13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1388,28 +1423,28 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10" t="b">
+      <c r="E14" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="14" t="s">
+      <c r="F14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1417,28 +1452,28 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10" t="b">
+      <c r="E15" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="F15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1446,28 +1481,28 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10" t="b">
+      <c r="E16" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="F16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1475,28 +1510,28 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="10" t="b">
+      <c r="E17" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="F17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1504,28 +1539,28 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="10" t="b">
+      <c r="E18" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="14" t="s">
+      <c r="F18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1533,28 +1568,28 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="10" t="b">
+      <c r="E19" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="F19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1562,28 +1597,28 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="b">
+      <c r="E20" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="F20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1591,28 +1626,28 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="10" t="b">
+      <c r="E21" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="F21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1620,28 +1655,28 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="10" t="b">
+      <c r="E22" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="F22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1649,28 +1684,28 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="10" t="b">
+      <c r="E23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="F23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1678,28 +1713,28 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="10" t="b">
+      <c r="E24" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="F24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1707,28 +1742,28 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="E25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1736,28 +1771,28 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="E26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1765,28 +1800,28 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="E27" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1794,28 +1829,28 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="E28" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1823,28 +1858,28 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="E29" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1852,28 +1887,28 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="E30" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1881,28 +1916,28 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="14" t="s">
+      <c r="E31" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1910,28 +1945,28 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="14" t="s">
+      <c r="E32" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1939,28 +1974,28 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="14" t="s">
+      <c r="E33" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1968,28 +2003,28 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="14" t="s">
+      <c r="E34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1997,28 +2032,28 @@
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="E35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2026,28 +2061,28 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="14" t="s">
+      <c r="E36" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2055,28 +2090,28 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="14" t="s">
+      <c r="E37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2084,28 +2119,28 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="14" t="s">
+      <c r="E38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2113,28 +2148,28 @@
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" s="14" t="s">
+      <c r="E39" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2142,28 +2177,28 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="14" t="s">
+      <c r="E40" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2171,28 +2206,28 @@
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="E41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2200,28 +2235,28 @@
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="14" t="s">
+      <c r="E42" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2229,28 +2264,28 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="14" t="s">
+      <c r="E43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2258,28 +2293,28 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="14" t="s">
+      <c r="E44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2287,28 +2322,28 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="E45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2316,28 +2351,28 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="14" t="s">
+      <c r="E46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2345,28 +2380,28 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="E47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2374,28 +2409,28 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="14" t="s">
+      <c r="E48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2403,140 +2438,245 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="E49" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="10" t="s">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="14" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="14" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" s="14" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I54" s="14" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="10" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I55" s="14" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I58" s="15" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{DED4B7E8-8918-4442-A57A-A010BF48D03D}">
